--- a/fund/analysis/data/fund_porfolio_max_drowdown.xlsx
+++ b/fund/analysis/data/fund_porfolio_max_drowdown.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>易方达沪深300医药ETF</t>
   </si>
@@ -29,16 +29,19 @@
     <t>汇添富中证主要消费ETF</t>
   </si>
   <si>
+    <t>华泰柏瑞沪深300ETF</t>
+  </si>
+  <si>
     <t>国泰纳斯达克100ETF</t>
   </si>
   <si>
     <t>易方达蓝筹精选</t>
   </si>
   <si>
+    <t>组合1</t>
+  </si>
+  <si>
     <t>我的组合</t>
-  </si>
-  <si>
-    <t>组合1</t>
   </si>
   <si>
     <t>易方达安心回馈混合</t>
@@ -399,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +452,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2785956964892413</v>
+        <v>0.2939849624060152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -457,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2248420098053107</v>
+        <v>0.2785956964892413</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -465,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1565161883790015</v>
+        <v>0.2248420098053107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -473,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1266692778304716</v>
+        <v>0.1813330856633645</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1243709561466571</v>
+        <v>0.1565161883790017</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -489,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0444340505144994</v>
+        <v>0.1243709561466571</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -497,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01199314677327246</v>
+        <v>0.0444340505144994</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -505,6 +508,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>0.01199314677327246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.0021998533431106</v>
       </c>
     </row>

--- a/fund/analysis/data/fund_porfolio_max_drowdown.xlsx
+++ b/fund/analysis/data/fund_porfolio_max_drowdown.xlsx
@@ -17,12 +17,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
+    <t>易方达中概互联50ETF</t>
+  </si>
+  <si>
     <t>易方达沪深300医药ETF</t>
   </si>
   <si>
-    <t>易方达中概互联50ETF</t>
-  </si>
-  <si>
     <t>中欧医疗健康混合A</t>
   </si>
   <si>
@@ -32,10 +32,10 @@
     <t>华泰柏瑞沪深300ETF</t>
   </si>
   <si>
+    <t>易方达蓝筹精选</t>
+  </si>
+  <si>
     <t>国泰纳斯达克100ETF</t>
-  </si>
-  <si>
-    <t>易方达蓝筹精选</t>
   </si>
   <si>
     <t>组合1</t>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4086261828902943</v>
+        <v>0.4432048681541582</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.386611281680814</v>
+        <v>0.4086261828902943</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2785956964892413</v>
+        <v>0.2924589792274775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2248420098053107</v>
+        <v>0.2785956964892413</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1813330856633645</v>
+        <v>0.1837973413351886</v>
       </c>
     </row>
     <row r="10" spans="1:2">
